--- a/Lab 02/DirectoriesDataSet.xlsx
+++ b/Lab 02/DirectoriesDataSet.xlsx
@@ -7,14 +7,17 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Comprehensive" sheetId="1" r:id="rId1"/>
+    <sheet name="PPT Files" sheetId="2" r:id="rId2"/>
+    <sheet name="DOC Files" sheetId="3" r:id="rId3"/>
+    <sheet name="PDF Files" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="516">
   <si>
     <t>Name Of File</t>
   </si>
@@ -7603,4 +7606,1359 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C2">
+        <v>264354</v>
+      </c>
+      <c r="D2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C3">
+        <v>2345635</v>
+      </c>
+      <c r="D3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C4">
+        <v>6612782</v>
+      </c>
+      <c r="D4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C5">
+        <v>4700138</v>
+      </c>
+      <c r="D5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C6">
+        <v>7049409</v>
+      </c>
+      <c r="D6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C7">
+        <v>827226</v>
+      </c>
+      <c r="D7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C8">
+        <v>731433</v>
+      </c>
+      <c r="D8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" t="s">
+        <v>300</v>
+      </c>
+      <c r="C9">
+        <v>6221770</v>
+      </c>
+      <c r="D9" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" t="s">
+        <v>300</v>
+      </c>
+      <c r="C10">
+        <v>6767983</v>
+      </c>
+      <c r="D10" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" t="s">
+        <v>300</v>
+      </c>
+      <c r="C11">
+        <v>17074669</v>
+      </c>
+      <c r="D11" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" t="s">
+        <v>300</v>
+      </c>
+      <c r="C12">
+        <v>5640237</v>
+      </c>
+      <c r="D12" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C13">
+        <v>9710626</v>
+      </c>
+      <c r="D13" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" t="s">
+        <v>300</v>
+      </c>
+      <c r="C14">
+        <v>14500925</v>
+      </c>
+      <c r="D14" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" t="s">
+        <v>300</v>
+      </c>
+      <c r="C15">
+        <v>9397015</v>
+      </c>
+      <c r="D15" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" t="s">
+        <v>300</v>
+      </c>
+      <c r="C16">
+        <v>9989694</v>
+      </c>
+      <c r="D16" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" t="s">
+        <v>300</v>
+      </c>
+      <c r="C17">
+        <v>8586587</v>
+      </c>
+      <c r="D17" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>158</v>
+      </c>
+      <c r="B18" t="s">
+        <v>300</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B19" t="s">
+        <v>300</v>
+      </c>
+      <c r="C19">
+        <v>1514036</v>
+      </c>
+      <c r="D19" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>217</v>
+      </c>
+      <c r="B20" t="s">
+        <v>300</v>
+      </c>
+      <c r="C20">
+        <v>18675851</v>
+      </c>
+      <c r="D20" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>226</v>
+      </c>
+      <c r="B21" t="s">
+        <v>300</v>
+      </c>
+      <c r="C21">
+        <v>169515</v>
+      </c>
+      <c r="D21" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>227</v>
+      </c>
+      <c r="B22" t="s">
+        <v>300</v>
+      </c>
+      <c r="C22">
+        <v>163890</v>
+      </c>
+      <c r="D22" t="s">
+        <v>441</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C2">
+        <v>19569</v>
+      </c>
+      <c r="D2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C3">
+        <v>39700</v>
+      </c>
+      <c r="D3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C4">
+        <v>39793</v>
+      </c>
+      <c r="D4" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C6">
+        <v>36063</v>
+      </c>
+      <c r="D6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C7">
+        <v>36010</v>
+      </c>
+      <c r="D7" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C8">
+        <v>35995</v>
+      </c>
+      <c r="D8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C9">
+        <v>26485</v>
+      </c>
+      <c r="D9" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C10">
+        <v>28554</v>
+      </c>
+      <c r="D10" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" t="s">
+        <v>304</v>
+      </c>
+      <c r="C11">
+        <v>29047</v>
+      </c>
+      <c r="D11" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" t="s">
+        <v>304</v>
+      </c>
+      <c r="C12">
+        <v>26530</v>
+      </c>
+      <c r="D12" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" t="s">
+        <v>304</v>
+      </c>
+      <c r="C13">
+        <v>26810</v>
+      </c>
+      <c r="D13" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14" t="s">
+        <v>304</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>214</v>
+      </c>
+      <c r="B15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C15">
+        <v>247670</v>
+      </c>
+      <c r="D15" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>215</v>
+      </c>
+      <c r="B16" t="s">
+        <v>304</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>219</v>
+      </c>
+      <c r="B17" t="s">
+        <v>304</v>
+      </c>
+      <c r="C17">
+        <v>52148</v>
+      </c>
+      <c r="D17" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>225</v>
+      </c>
+      <c r="B18" t="s">
+        <v>304</v>
+      </c>
+      <c r="C18">
+        <v>116362</v>
+      </c>
+      <c r="D18" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>225</v>
+      </c>
+      <c r="B19" t="s">
+        <v>304</v>
+      </c>
+      <c r="C19">
+        <v>190702</v>
+      </c>
+      <c r="D19" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>229</v>
+      </c>
+      <c r="B20" t="s">
+        <v>304</v>
+      </c>
+      <c r="C20">
+        <v>359218</v>
+      </c>
+      <c r="D20" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>233</v>
+      </c>
+      <c r="B21" t="s">
+        <v>304</v>
+      </c>
+      <c r="C21">
+        <v>246237</v>
+      </c>
+      <c r="D21" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>234</v>
+      </c>
+      <c r="B22" t="s">
+        <v>304</v>
+      </c>
+      <c r="C22">
+        <v>162</v>
+      </c>
+      <c r="D22" t="s">
+        <v>442</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C2">
+        <v>11326617</v>
+      </c>
+      <c r="D2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C3">
+        <v>875363</v>
+      </c>
+      <c r="D3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C4">
+        <v>2586328</v>
+      </c>
+      <c r="D4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C5">
+        <v>418409</v>
+      </c>
+      <c r="D5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C6">
+        <v>147451</v>
+      </c>
+      <c r="D6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C7">
+        <v>1133147</v>
+      </c>
+      <c r="D7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" t="s">
+        <v>301</v>
+      </c>
+      <c r="C8">
+        <v>1526692</v>
+      </c>
+      <c r="D8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C9">
+        <v>3502159</v>
+      </c>
+      <c r="D9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" t="s">
+        <v>301</v>
+      </c>
+      <c r="C10">
+        <v>3387782</v>
+      </c>
+      <c r="D10" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" t="s">
+        <v>301</v>
+      </c>
+      <c r="C11">
+        <v>1405106</v>
+      </c>
+      <c r="D11" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" t="s">
+        <v>301</v>
+      </c>
+      <c r="C12">
+        <v>1448846</v>
+      </c>
+      <c r="D12" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" t="s">
+        <v>301</v>
+      </c>
+      <c r="C13">
+        <v>318463</v>
+      </c>
+      <c r="D13" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" t="s">
+        <v>301</v>
+      </c>
+      <c r="C14">
+        <v>271673</v>
+      </c>
+      <c r="D14" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15" t="s">
+        <v>301</v>
+      </c>
+      <c r="C15">
+        <v>209075</v>
+      </c>
+      <c r="D15" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16" t="s">
+        <v>301</v>
+      </c>
+      <c r="C16">
+        <v>184542</v>
+      </c>
+      <c r="D16" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" t="s">
+        <v>301</v>
+      </c>
+      <c r="C17">
+        <v>172478</v>
+      </c>
+      <c r="D17" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18" t="s">
+        <v>301</v>
+      </c>
+      <c r="C18">
+        <v>306088</v>
+      </c>
+      <c r="D18" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>182</v>
+      </c>
+      <c r="B19" t="s">
+        <v>301</v>
+      </c>
+      <c r="C19">
+        <v>325666</v>
+      </c>
+      <c r="D19" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" t="s">
+        <v>301</v>
+      </c>
+      <c r="C20">
+        <v>303643</v>
+      </c>
+      <c r="D20" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>186</v>
+      </c>
+      <c r="B21" t="s">
+        <v>301</v>
+      </c>
+      <c r="C21">
+        <v>318296</v>
+      </c>
+      <c r="D21" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>187</v>
+      </c>
+      <c r="B22" t="s">
+        <v>301</v>
+      </c>
+      <c r="C22">
+        <v>305732</v>
+      </c>
+      <c r="D22" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>188</v>
+      </c>
+      <c r="B23" t="s">
+        <v>301</v>
+      </c>
+      <c r="C23">
+        <v>319699</v>
+      </c>
+      <c r="D23" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>189</v>
+      </c>
+      <c r="B24" t="s">
+        <v>301</v>
+      </c>
+      <c r="C24">
+        <v>304187</v>
+      </c>
+      <c r="D24" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>192</v>
+      </c>
+      <c r="B25" t="s">
+        <v>301</v>
+      </c>
+      <c r="C25">
+        <v>330237</v>
+      </c>
+      <c r="D25" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B26" t="s">
+        <v>301</v>
+      </c>
+      <c r="C26">
+        <v>319190</v>
+      </c>
+      <c r="D26" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>194</v>
+      </c>
+      <c r="B27" t="s">
+        <v>301</v>
+      </c>
+      <c r="C27">
+        <v>317449</v>
+      </c>
+      <c r="D27" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>195</v>
+      </c>
+      <c r="B28" t="s">
+        <v>301</v>
+      </c>
+      <c r="C28">
+        <v>303666</v>
+      </c>
+      <c r="D28" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>196</v>
+      </c>
+      <c r="B29" t="s">
+        <v>301</v>
+      </c>
+      <c r="C29">
+        <v>318811</v>
+      </c>
+      <c r="D29" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30" t="s">
+        <v>301</v>
+      </c>
+      <c r="C30">
+        <v>303628</v>
+      </c>
+      <c r="D30" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>198</v>
+      </c>
+      <c r="B31" t="s">
+        <v>301</v>
+      </c>
+      <c r="C31">
+        <v>258978</v>
+      </c>
+      <c r="D31" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>199</v>
+      </c>
+      <c r="B32" t="s">
+        <v>301</v>
+      </c>
+      <c r="C32">
+        <v>190923</v>
+      </c>
+      <c r="D32" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>200</v>
+      </c>
+      <c r="B33" t="s">
+        <v>301</v>
+      </c>
+      <c r="C33">
+        <v>366901</v>
+      </c>
+      <c r="D33" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>201</v>
+      </c>
+      <c r="B34" t="s">
+        <v>301</v>
+      </c>
+      <c r="C34">
+        <v>306085</v>
+      </c>
+      <c r="D34" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B35" t="s">
+        <v>301</v>
+      </c>
+      <c r="C35">
+        <v>264929</v>
+      </c>
+      <c r="D35" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>203</v>
+      </c>
+      <c r="B36" t="s">
+        <v>301</v>
+      </c>
+      <c r="C36">
+        <v>188861</v>
+      </c>
+      <c r="D36" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>204</v>
+      </c>
+      <c r="B37" t="s">
+        <v>301</v>
+      </c>
+      <c r="C37">
+        <v>374322</v>
+      </c>
+      <c r="D37" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>205</v>
+      </c>
+      <c r="B38" t="s">
+        <v>301</v>
+      </c>
+      <c r="C38">
+        <v>325666</v>
+      </c>
+      <c r="D38" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>206</v>
+      </c>
+      <c r="B39" t="s">
+        <v>301</v>
+      </c>
+      <c r="C39">
+        <v>259526</v>
+      </c>
+      <c r="D39" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>207</v>
+      </c>
+      <c r="B40" t="s">
+        <v>301</v>
+      </c>
+      <c r="C40">
+        <v>190000</v>
+      </c>
+      <c r="D40" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>208</v>
+      </c>
+      <c r="B41" t="s">
+        <v>301</v>
+      </c>
+      <c r="C41">
+        <v>367362</v>
+      </c>
+      <c r="D41" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>187</v>
+      </c>
+      <c r="B42" t="s">
+        <v>301</v>
+      </c>
+      <c r="C42">
+        <v>305731</v>
+      </c>
+      <c r="D42" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>213</v>
+      </c>
+      <c r="B43" t="s">
+        <v>301</v>
+      </c>
+      <c r="C43">
+        <v>1632231</v>
+      </c>
+      <c r="D43" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>218</v>
+      </c>
+      <c r="B44" t="s">
+        <v>301</v>
+      </c>
+      <c r="C44">
+        <v>3239252</v>
+      </c>
+      <c r="D44" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>220</v>
+      </c>
+      <c r="B45" t="s">
+        <v>301</v>
+      </c>
+      <c r="C45">
+        <v>634422</v>
+      </c>
+      <c r="D45" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>221</v>
+      </c>
+      <c r="B46" t="s">
+        <v>301</v>
+      </c>
+      <c r="C46">
+        <v>946212</v>
+      </c>
+      <c r="D46" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>223</v>
+      </c>
+      <c r="B47" t="s">
+        <v>301</v>
+      </c>
+      <c r="C47">
+        <v>2770397</v>
+      </c>
+      <c r="D47" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>224</v>
+      </c>
+      <c r="B48" t="s">
+        <v>301</v>
+      </c>
+      <c r="C48">
+        <v>273457</v>
+      </c>
+      <c r="D48" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>225</v>
+      </c>
+      <c r="B49" t="s">
+        <v>301</v>
+      </c>
+      <c r="C49">
+        <v>1269325</v>
+      </c>
+      <c r="D49" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>232</v>
+      </c>
+      <c r="B50" t="s">
+        <v>301</v>
+      </c>
+      <c r="C50">
+        <v>186976</v>
+      </c>
+      <c r="D50" t="s">
+        <v>442</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>